--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -40,24 +40,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
@@ -67,30 +67,30 @@
     <t>hate</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>fake</t>
+  </si>
+  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -106,12 +106,12 @@
     <t>best</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -127,37 +127,37 @@
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>really</t>
+    <t>netflix</t>
   </si>
   <si>
     <t>watching</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
-    <t>media</t>
+    <t>’</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -587,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9807692307692307</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>27</v>
@@ -637,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K4">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9230769230769231</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K6">
-        <v>0.7719298245614035</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K7">
-        <v>0.6896551724137931</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L7">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,7 +837,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="C8">
         <v>13</v>
@@ -855,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K8">
-        <v>0.6666666666666666</v>
+        <v>0.6933333333333334</v>
       </c>
       <c r="L8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -937,13 +937,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.725</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K10">
-        <v>0.4833333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,25 +1011,25 @@
         <v>35</v>
       </c>
       <c r="K11">
-        <v>0.4814814814814815</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L11">
+        <v>14</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>13</v>
-      </c>
-      <c r="M11">
-        <v>13</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,13 +1037,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6170212765957447</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K12">
-        <v>0.4242424242424243</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1087,13 +1087,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5797101449275363</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C13">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K13">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1137,13 +1137,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1155,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K14">
-        <v>0.3611111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1187,13 +1187,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5652173913043478</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1237,13 +1237,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5416666666666666</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1255,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K16">
-        <v>0.2349726775956284</v>
+        <v>0.2449908925318761</v>
       </c>
       <c r="L16">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="M16">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>840</v>
+        <v>829</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1287,13 +1287,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1305,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K17">
-        <v>0.1473684210526316</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>81</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1337,13 +1337,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4615384615384616</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>42</v>
@@ -1387,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3846153846153846</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1405,19 +1405,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>0.04074074074074074</v>
+        <v>0.04240282685512368</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>518</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1437,19 +1437,19 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0505050505050505</v>
+        <v>0.0472972972972973</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>17</v>
       </c>
       <c r="E20">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="F20">
-        <v>0.88</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1461,13 +1461,13 @@
         <v>44</v>
       </c>
       <c r="K20">
-        <v>0.03409090909090909</v>
+        <v>0.04066265060240964</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>595</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1487,13 +1487,13 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>0.03012048192771084</v>
+        <v>0.03084415584415584</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>644</v>
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1513,13 +1513,13 @@
         <v>46</v>
       </c>
       <c r="K22">
-        <v>0.02534562211981567</v>
+        <v>0.02176696542893726</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1692</v>
+        <v>764</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1539,13 +1539,13 @@
         <v>47</v>
       </c>
       <c r="K23">
-        <v>0.02176696542893726</v>
+        <v>0.02131336405529954</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>764</v>
+        <v>1699</v>
       </c>
     </row>
   </sheetData>
